--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461970.3472295984</v>
+        <v>451488.9228013617</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707513</v>
+        <v>12908190.36482258</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901942</v>
+        <v>3555535.184291201</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7092600.934481332</v>
+        <v>7522564.705619778</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>141.3492123126917</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>37.39972735518477</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>110.1342391853167</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>154.1156291734913</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>76.5970232845512</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>74.03169761275444</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>79.47996908723991</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871638</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>48.20258419490514</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>271.3997989221274</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871638</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>98.5798883033423</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>109.4938945646187</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>133.9073134702961</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>50.94722270604644</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1591,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>106.8364187178475</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>119.0131614123048</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>56.21455705046987</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1910,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>37.70236296229323</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>15.21029030982553</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2056,10 +2058,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>141.4251020395616</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>54.43435127852358</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>261.9792637421937</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2570,7 +2572,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>209.7612727945905</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>12.82988994717986</v>
+        <v>73.50111029899487</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3047,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3266,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.07475062513896</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3475,22 +3477,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.0750960050902</v>
+        <v>106.858786719141</v>
       </c>
     </row>
     <row r="41">
@@ -3913,7 +3915,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>44.67506049370279</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3980,22 +3982,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>89.72342716134048</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.1055716303395</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>591.614269593831</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="C2" t="n">
-        <v>448.8372874597989</v>
+        <v>966.442159351893</v>
       </c>
       <c r="D2" t="n">
-        <v>448.8372874597989</v>
+        <v>543.1495385368933</v>
       </c>
       <c r="E2" t="n">
-        <v>448.8372874597989</v>
+        <v>117.1725986847508</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>117.1725986847508</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>117.1725986847508</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L2" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505812</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W2" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X2" t="n">
-        <v>1416.799903930471</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y2" t="n">
-        <v>1011.462633885361</v>
+        <v>1813.191253630123</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4391,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
         <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>866.8612493132769</v>
+        <v>669.8354755761782</v>
       </c>
       <c r="L3" t="n">
-        <v>866.8612493132769</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M3" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N3" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O3" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.7067844524004</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
         <v>955.7067844524004</v>
@@ -4483,7 +4485,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4507,31 +4509,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T4" t="n">
-        <v>1896.49088542089</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U4" t="n">
-        <v>1896.49088542089</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V4" t="n">
-        <v>1614.779418028919</v>
+        <v>1699.860437296304</v>
       </c>
       <c r="W4" t="n">
-        <v>1614.779418028919</v>
+        <v>1699.860437296304</v>
       </c>
       <c r="X4" t="n">
-        <v>1372.215521474724</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.872753164466</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2224.911252462377</v>
+        <v>988.0056192934833</v>
       </c>
       <c r="C5" t="n">
-        <v>1798.010522475677</v>
+        <v>561.1048893067834</v>
       </c>
       <c r="D5" t="n">
-        <v>1374.717901660677</v>
+        <v>561.1048893067834</v>
       </c>
       <c r="E5" t="n">
-        <v>948.7409618085345</v>
+        <v>561.1048893067834</v>
       </c>
       <c r="F5" t="n">
-        <v>523.6167799979347</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>119.2777175873833</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>455.3583126271592</v>
+        <v>667.4947029893167</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>667.4947029893167</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>667.4947029893167</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.911252462377</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y5" t="n">
-        <v>2224.911252462377</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="6">
@@ -4626,40 +4628,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
         <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>838.37484378254</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M6" t="n">
-        <v>316.1957143288386</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132769</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O6" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
         <v>1389.040378766978</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>188.2944935410931</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>188.2944935410931</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>188.2944935410931</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
         <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1646.496266633259</v>
+        <v>1203.729658139928</v>
       </c>
       <c r="C8" t="n">
-        <v>1597.806787648507</v>
+        <v>776.8289281532279</v>
       </c>
       <c r="D8" t="n">
-        <v>1597.806787648507</v>
+        <v>353.5363073382282</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.829847796364</v>
+        <v>353.5363073382282</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>353.5363073382282</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>353.5363073382282</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="X8" t="n">
-        <v>1646.496266633259</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="Y8" t="n">
-        <v>1646.496266633259</v>
+        <v>1203.729658139928</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4865,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M9" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="O9" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.7432593109769</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>458.7432593109769</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>458.7432593109769</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>458.7432593109769</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>996.9515396389406</v>
+        <v>1407.853983585013</v>
       </c>
       <c r="C11" t="n">
-        <v>570.0508096522408</v>
+        <v>1407.853983585013</v>
       </c>
       <c r="D11" t="n">
-        <v>470.47516490139</v>
+        <v>984.5613627700136</v>
       </c>
       <c r="E11" t="n">
-        <v>44.49822504924753</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>957.7672188505812</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L11" t="n">
-        <v>1100.603903091853</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M11" t="n">
-        <v>1100.603903091853</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N11" t="n">
-        <v>1100.603903091853</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O11" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P11" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W11" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X11" t="n">
-        <v>1416.799903930471</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y11" t="n">
-        <v>1416.799903930471</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>51.94486801115937</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J12" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L12" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="M12" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="N12" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927.6499241754298</v>
+        <v>505.7818726238037</v>
       </c>
       <c r="C13" t="n">
-        <v>927.6499241754298</v>
+        <v>505.7818726238037</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>505.7818726238037</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>505.7818726238037</v>
       </c>
       <c r="F13" t="n">
         <v>454.3200315065851</v>
@@ -5194,7 +5196,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5221,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X13" t="n">
-        <v>927.6499241754298</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y13" t="n">
-        <v>927.6499241754298</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>471.3989550359474</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="C14" t="n">
-        <v>44.49822504924753</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="D14" t="n">
-        <v>44.49822504924753</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E14" t="n">
-        <v>44.49822504924753</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M14" t="n">
+        <v>595.1637600336854</v>
+      </c>
+      <c r="N14" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="N14" t="n">
-        <v>1696.494830002562</v>
-      </c>
       <c r="O14" t="n">
-        <v>2224.911252462377</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>2116.995677999903</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>2116.995677999903</v>
       </c>
       <c r="V14" t="n">
-        <v>2104.695937904493</v>
+        <v>2116.995677999903</v>
       </c>
       <c r="W14" t="n">
-        <v>1708.30458820484</v>
+        <v>2116.995677999903</v>
       </c>
       <c r="X14" t="n">
-        <v>1296.584589372587</v>
+        <v>1705.275679167651</v>
       </c>
       <c r="Y14" t="n">
-        <v>891.2473193274775</v>
+        <v>1299.938409122541</v>
       </c>
     </row>
     <row r="15">
@@ -5337,43 +5339,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K15" t="n">
-        <v>51.94486801115937</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L15" t="n">
-        <v>51.94486801115937</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M15" t="n">
-        <v>51.94486801115937</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N15" t="n">
-        <v>602.6104029955975</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O15" t="n">
-        <v>756.3555336978366</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P15" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q15" t="n">
         <v>1771.166545545054</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>458.7432593109769</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C16" t="n">
-        <v>458.7432593109769</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D16" t="n">
-        <v>458.7432593109769</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E16" t="n">
-        <v>458.7432593109769</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F16" t="n">
         <v>454.3200315065851</v>
@@ -5431,7 +5433,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5458,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>838.3849181013534</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>838.3849181013534</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>838.3849181013534</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>781.6025372422929</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>781.6025372422929</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>377.2634748317415</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
-        <v>79.39509630577632</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L17" t="n">
-        <v>44.49822504924753</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>595.1637600336857</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N17" t="n">
-        <v>1145.829295018124</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O17" t="n">
-        <v>1145.829295018124</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P17" t="n">
-        <v>1651.269438076291</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580474</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2003.98568150701</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>2003.98568150701</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>1646.496266633259</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>1250.104916933606</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>838.3849181013534</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>838.3849181013534</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924753</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>595.1637600336857</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>838.3748437825398</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M18" t="n">
-        <v>838.3748437825398</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N18" t="n">
-        <v>1389.040378766978</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1389.040378766978</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>494.9200589091692</v>
+        <v>888.2776948471594</v>
       </c>
       <c r="C19" t="n">
-        <v>322.9474957880852</v>
+        <v>888.2776948471594</v>
       </c>
       <c r="D19" t="n">
-        <v>159.6307229148559</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>159.6307229148559</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>159.6307229148559</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>159.6307229148559</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1484.213795394888</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V19" t="n">
-        <v>1202.502328002917</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W19" t="n">
-        <v>927.6499241754298</v>
+        <v>1547.350328423678</v>
       </c>
       <c r="X19" t="n">
-        <v>685.0860276212348</v>
+        <v>1304.786431869483</v>
       </c>
       <c r="Y19" t="n">
-        <v>685.0860276212348</v>
+        <v>1078.443663559225</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,46 +5752,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1013.511272808982</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G22" t="n">
         <v>345.8675501573982</v>
@@ -5908,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2092.823489082331</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>2092.823489082331</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>1812.639040582635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V22" t="n">
-        <v>1530.927573190663</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W22" t="n">
-        <v>1256.075169363176</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X22" t="n">
-        <v>1013.511272808982</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1013.511272808982</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6066,19 +6068,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3344.495685477015</v>
+        <v>1068.606254915256</v>
       </c>
       <c r="C25" t="n">
-        <v>3344.495685477015</v>
+        <v>896.6336917941717</v>
       </c>
       <c r="D25" t="n">
-        <v>3344.495685477015</v>
+        <v>733.3169189209424</v>
       </c>
       <c r="E25" t="n">
-        <v>3178.287479629868</v>
+        <v>567.1087130737959</v>
       </c>
       <c r="F25" t="n">
-        <v>3178.287479629868</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4824.7577092045</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>4560.132190272991</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V25" t="n">
-        <v>4278.42072288102</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W25" t="n">
-        <v>4003.568319053533</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X25" t="n">
-        <v>3761.004422499338</v>
+        <v>1485.114991937579</v>
       </c>
       <c r="Y25" t="n">
-        <v>3534.66165418908</v>
+        <v>1258.772223627321</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
         <v>137.1995846623573</v>
@@ -6224,52 +6226,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6361,16 +6363,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G28" t="n">
         <v>345.8675501573982</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,22 +6411,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="Y28" t="n">
         <v>1375.649804642131</v>
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6503,7 +6505,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>4025.820723818557</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.8002552472883</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C31" t="n">
-        <v>431.8276921262043</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2099.621208542961</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="U31" t="n">
-        <v>1819.436760043265</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.725292651294</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.872888823807</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X31" t="n">
-        <v>1020.308992269612</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y31" t="n">
-        <v>793.966223959354</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,34 +6718,34 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
         <v>2113.800768076616</v>
@@ -6953,34 +6955,34 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7013,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
         <v>821.6753975134684</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W37" t="n">
-        <v>4092.726745831969</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>4092.726745831969</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>4092.726745831969</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7190,19 +7192,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,19 +7262,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7309,16 +7311,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,22 +7359,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1832.396244838396</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
-        <v>1557.543841010909</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X40" t="n">
-        <v>1557.543841010909</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y40" t="n">
         <v>1375.649804642131</v>
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7397,13 +7399,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7418,28 +7420,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7497,16 +7499,16 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M42" t="n">
-        <v>939.1015214887346</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N42" t="n">
-        <v>939.1015214887346</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O42" t="n">
-        <v>939.1015214887346</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7567,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7591,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.555503974472</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>1777.076408520152</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>897.3758948880899</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>470.47516490139</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>470.47516490139</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>44.49822504924753</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>407.101683866143</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>957.7672188505812</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1508.432753835019</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2059.098288819458</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N44" t="n">
-        <v>2224.911252462377</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462377</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462377</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2224.911252462377</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2134.281528056982</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1722.561529224729</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1317.22425917962</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>602.6104029955975</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>602.6104029955975</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>602.6104029955975</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N45" t="n">
-        <v>602.6104029955975</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O45" t="n">
-        <v>838.3748437825398</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1389.040378766978</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1127.679347573484</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>955.7067844524004</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>792.3900115791711</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>626.1818057320246</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065851</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734062</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792433</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736641</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743915</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.883781619951</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299714</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221615</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.87263914955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2061.60438497749</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>2061.60438497749</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>2061.60438497749</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>2061.60438497749</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1786.751981150003</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>1544.188084595808</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>1317.84531628555</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>110.4928214404734</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>86.13502881159596</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,13 +8060,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>379.611113881151</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M3" t="n">
-        <v>467.7026586628309</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8076,7 +8078,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>453.322231905261</v>
+        <v>301.3352940721923</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>549.8528999481832</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,13 +8306,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P6" t="n">
-        <v>549.2245073196783</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8453,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642096</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8538,19 +8540,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721218</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P9" t="n">
-        <v>267.4386025673074</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,22 +8692,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L11" t="n">
-        <v>182.5915214642101</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>181.7107419310186</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8766,28 +8768,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>171.3630160154378</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204228</v>
+        <v>541.7026457419898</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8930,22 +8932,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N14" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O14" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512729</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9000,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>379.7269667620472</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O15" t="n">
-        <v>178.4700015426657</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>548.1209608588846</v>
+        <v>480.8452212937373</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9242,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>268.1828480767085</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>392.4461590409599</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291358</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,13 +9409,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>143.6953511146599</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>675.3923850715689</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>218.8019602116015</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>424.3574658298753</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9975,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10434,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10671,7 +10673,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10908,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -10917,13 +10919,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>196.7283130837754</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11075,7 +11077,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11145,7 +11147,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>534.642907502631</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,25 +11299,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104035</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>594.539855548217</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150259</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N44" t="n">
-        <v>204.7674648980005</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>261.3177895070124</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>281.2825103741411</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>257.4899673855207</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>130.7717151110423</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -22768,7 +22770,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>86.02262841516162</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>344.2759167079425</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>220.8579971279511</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22847,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22942,19 +22944,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>90.77286840263324</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>18.44967133088761</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23021,25 +23023,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>374.4291384919277</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>23.48989581857813</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,10 +23074,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23197,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>18.44967133088761</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>320.4798063035074</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>312.2232758890023</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23318,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,13 +23421,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>27.77629167420091</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>119.1959337771387</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23546,16 +23548,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>111.8798965279657</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>234.9013593127082</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>365.5026134031511</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>123.9812421822038</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>127.1480154971016</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>27.00859496649494</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>15.40334027250503</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>14.31806783256491</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>228.0760643491791</v>
+        <v>167.4048439973641</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>53.32812537571778</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.189558399806</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>53.32812537571778</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25597,25 +25599,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.00424462206522</v>
+        <v>117.2205539080143</v>
       </c>
     </row>
     <row r="41">
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>234.2192922243486</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>302.7040090413161</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>53.32812537571701</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466339.6876300525</v>
+        <v>466339.6876300524</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>466339.6876300525</v>
+        <v>466339.6876300524</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466339.6876300526</v>
+        <v>773587.8642726338</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773587.8642726338</v>
+        <v>773587.8642726337</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773587.8642726338</v>
+        <v>773587.8642726337</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773587.8642726338</v>
+        <v>773587.8642726337</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466339.6876300526</v>
+        <v>773587.8642726337</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>152470.9723568845</v>
       </c>
       <c r="D2" t="n">
-        <v>152470.9723568846</v>
+        <v>152470.9723568844</v>
       </c>
       <c r="E2" t="n">
         <v>152470.9723568845</v>
@@ -26326,10 +26328,10 @@
         <v>152470.9723568845</v>
       </c>
       <c r="G2" t="n">
-        <v>152470.9723568845</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="H2" t="n">
-        <v>252913.6814118514</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="I2" t="n">
         <v>252913.6814118513</v>
@@ -26341,7 +26343,7 @@
         <v>252913.6814118513</v>
       </c>
       <c r="L2" t="n">
-        <v>252913.6814118514</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="M2" t="n">
         <v>252913.6814118513</v>
@@ -26350,10 +26352,10 @@
         <v>252913.6814118513</v>
       </c>
       <c r="O2" t="n">
+        <v>252913.6814118514</v>
+      </c>
+      <c r="P2" t="n">
         <v>252913.6814118513</v>
-      </c>
-      <c r="P2" t="n">
-        <v>152470.9723568845</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>198041.7898901689</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>173883.8490937447</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="C4" t="n">
         <v>26326.44296043127</v>
@@ -26424,16 +26426,16 @@
         <v>26326.44296043127</v>
       </c>
       <c r="E4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="F4" t="n">
         <v>26326.44296043127</v>
       </c>
       <c r="G4" t="n">
-        <v>26326.44296043127</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
@@ -26457,7 +26459,7 @@
         <v>43748.40045389556</v>
       </c>
       <c r="P4" t="n">
-        <v>26326.44296043127</v>
+        <v>43748.40045389556</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127706.4550557122</v>
+        <v>-127706.455055712</v>
       </c>
       <c r="C6" t="n">
+        <v>58698.27835902516</v>
+      </c>
+      <c r="D6" t="n">
         <v>58698.27835902508</v>
       </c>
-      <c r="D6" t="n">
-        <v>58698.27835902516</v>
-      </c>
       <c r="E6" t="n">
-        <v>92325.87835902511</v>
+        <v>92325.87835902514</v>
       </c>
       <c r="F6" t="n">
-        <v>92325.87835902511</v>
+        <v>92325.87835902514</v>
       </c>
       <c r="G6" t="n">
-        <v>92325.87835902511</v>
+        <v>-66626.57112064279</v>
       </c>
       <c r="H6" t="n">
-        <v>-63536.92121798349</v>
+        <v>131415.2187695261</v>
       </c>
       <c r="I6" t="n">
         <v>131415.2187695261</v>
       </c>
       <c r="J6" t="n">
-        <v>-14118.45116529048</v>
+        <v>-14118.45116529037</v>
       </c>
       <c r="K6" t="n">
         <v>131415.2187695261</v>
@@ -26558,10 +26560,10 @@
         <v>131415.2187695261</v>
       </c>
       <c r="O6" t="n">
-        <v>131415.218769526</v>
+        <v>-42468.63032421857</v>
       </c>
       <c r="P6" t="n">
-        <v>92325.87835902511</v>
+        <v>131415.2187695261</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>556.2278131155939</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>722.5561044572627</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,13 +34780,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M3" t="n">
-        <v>444.6058781505029</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>415.010189472638</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P6" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35173,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P9" t="n">
-        <v>245.6677613624788</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L11" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35486,28 +35488,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>150.7519016821044</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371612</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O14" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O15" t="n">
-        <v>155.2981118204435</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>510.5455990486533</v>
+        <v>443.269859483506</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>245.6677613624789</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>369.3493785286319</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155941</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,13 +36129,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>106.3043917586358</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>654.0493568580273</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>181.2265984013702</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>403.0144376163336</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>174.9574718789467</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37795,7 +37797,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,7 +37867,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>512.8720662978023</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155941</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>556.2278131155941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>556.2278131155941</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N44" t="n">
-        <v>167.4878420635545</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>238.1458997847902</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451488.9228013617</v>
+        <v>448166.1571035009</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12908190.36482258</v>
+        <v>12908190.36482257</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3555535.184291201</v>
+        <v>3555535.184291206</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>37.39972735518477</v>
+        <v>66.05753679317549</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>154.1156291734913</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>371.0037482136084</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>76.5970232845512</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>49.87597792716521</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>260.4446813871638</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>271.3997989221274</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>269.0583920009842</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1305,10 +1305,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>260.4446813871638</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>219.8698504776406</v>
       </c>
     </row>
     <row r="11">
@@ -1378,13 +1378,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>109.4938945646187</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>324.3282561152071</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>50.94722270604644</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>106.8364187178475</v>
+        <v>78.41312570852807</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>37.70236296229323</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F25" t="n">
-        <v>54.43435127852358</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7612727945905</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>73.50111029899487</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3049,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3274,7 +3274,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.858786719141</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>44.67506049370279</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1393.342889338593</v>
+        <v>1366.663193762112</v>
       </c>
       <c r="C2" t="n">
-        <v>966.442159351893</v>
+        <v>1366.663193762112</v>
       </c>
       <c r="D2" t="n">
-        <v>543.1495385368933</v>
+        <v>1366.663193762112</v>
       </c>
       <c r="E2" t="n">
-        <v>117.1725986847508</v>
+        <v>940.6862539099699</v>
       </c>
       <c r="F2" t="n">
-        <v>117.1725986847508</v>
+        <v>515.5620720993701</v>
       </c>
       <c r="G2" t="n">
-        <v>117.1725986847508</v>
+        <v>111.2230096888187</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336854</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M2" t="n">
-        <v>1218.160237973755</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N2" t="n">
-        <v>1218.160237973755</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>1763.054543461765</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>1366.663193762112</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.191253630123</v>
+        <v>1366.663193762112</v>
       </c>
       <c r="Y2" t="n">
-        <v>1813.191253630123</v>
+        <v>1366.663193762112</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>669.8354755761782</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>1220.501010560616</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M3" t="n">
-        <v>1771.166545545054</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N3" t="n">
-        <v>1771.166545545054</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924752</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688275</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U4" t="n">
-        <v>1981.571904688275</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.860437296304</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W4" t="n">
-        <v>1699.860437296304</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.0056192934833</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C5" t="n">
-        <v>561.1048893067834</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D5" t="n">
-        <v>561.1048893067834</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E5" t="n">
-        <v>561.1048893067834</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924752</v>
@@ -4570,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893167</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893167</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893167</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630123</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.853983585013</v>
+        <v>2120.543958335516</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L6" t="n">
-        <v>838.37484378254</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M6" t="n">
-        <v>838.37484378254</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>838.37484378254</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924752</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V7" t="n">
-        <v>1961.835816717766</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W7" t="n">
-        <v>1686.983412890279</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.419516336084</v>
+        <v>855.2210751020999</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>628.878306791842</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1203.729658139928</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="C8" t="n">
-        <v>776.8289281532279</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="D8" t="n">
-        <v>353.5363073382282</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="E8" t="n">
-        <v>353.5363073382282</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>353.5363073382282</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>353.5363073382282</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074139</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091852</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091852</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058788</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185037</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1609.066928185037</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X8" t="n">
-        <v>1609.066928185037</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="Y8" t="n">
-        <v>1203.729658139928</v>
+        <v>873.9614692703988</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>201.1892506764434</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608814</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>554.5407682429176</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1961.835816717766</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W10" t="n">
-        <v>1686.983412890279</v>
+        <v>1209.361391567401</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.419516336084</v>
+        <v>966.797495013206</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.076748025826</v>
+        <v>744.7067369549832</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1407.853983585013</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="C11" t="n">
-        <v>1407.853983585013</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D11" t="n">
-        <v>984.5613627700136</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E11" t="n">
-        <v>873.9614692703988</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F11" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L11" t="n">
-        <v>957.767218850581</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M11" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N11" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O11" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P11" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462376</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462376</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.191253630123</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="Y11" t="n">
-        <v>1407.853983585013</v>
+        <v>1318.891967526989</v>
       </c>
     </row>
     <row r="12">
@@ -5102,40 +5102,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L12" t="n">
-        <v>874.3078922751884</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="M12" t="n">
-        <v>874.3078922751884</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N12" t="n">
-        <v>874.3078922751884</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O12" t="n">
-        <v>874.3078922751884</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P12" t="n">
         <v>1389.040378766978</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>505.7818726238037</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C13" t="n">
-        <v>505.7818726238037</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D13" t="n">
-        <v>505.7818726238037</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E13" t="n">
-        <v>505.7818726238037</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1299.938409122541</v>
+        <v>875.7380174464988</v>
       </c>
       <c r="C14" t="n">
-        <v>1299.938409122541</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D14" t="n">
-        <v>1299.938409122541</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E14" t="n">
-        <v>873.9614692703988</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F14" t="n">
         <v>448.8372874597989</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M14" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N14" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O14" t="n">
-        <v>1696.494830002561</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P14" t="n">
-        <v>1768.825772958193</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2116.995677999903</v>
+        <v>2041.338780852155</v>
       </c>
       <c r="U14" t="n">
-        <v>2116.995677999903</v>
+        <v>2041.338780852155</v>
       </c>
       <c r="V14" t="n">
-        <v>2116.995677999903</v>
+        <v>1683.849365978405</v>
       </c>
       <c r="W14" t="n">
-        <v>2116.995677999903</v>
+        <v>1287.458016278752</v>
       </c>
       <c r="X14" t="n">
-        <v>1705.275679167651</v>
+        <v>875.7380174464988</v>
       </c>
       <c r="Y14" t="n">
-        <v>1299.938409122541</v>
+        <v>875.7380174464988</v>
       </c>
     </row>
     <row r="15">
@@ -5339,28 +5339,28 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L15" t="n">
         <v>1220.501010560616</v>
@@ -5369,10 +5369,10 @@
         <v>1220.501010560616</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.166545545054</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O15" t="n">
-        <v>1771.166545545054</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P15" t="n">
         <v>1771.166545545054</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5463,25 +5463,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M18" t="n">
-        <v>739.6560874287652</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>888.2776948471594</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>888.2776948471594</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1822.202732251165</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.350328423678</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>1304.786431869483</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>1078.443663559225</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357521</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5940,22 +5940,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1068.606254915256</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>896.6336917941717</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>733.3169189209424</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E25" t="n">
-        <v>567.1087130737959</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6177,22 +6177,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>2002.531292319261</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>2002.531292319261</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>1727.678888491774</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>1485.114991937579</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>1258.772223627321</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N27" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1869.241345563992</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.529878172021</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.529878172021</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1587.529878172021</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6481,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6505,7 +6505,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6551,13 +6551,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>775.6620294727279</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>603.6894663516439</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>440.3726934784146</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E31" t="n">
         <v>274.1644876312681</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1991.298534268705</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1991.298534268705</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.587066876733</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.734663049246</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.170766495052</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.8279981847936</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6718,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6742,7 +6742,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
         <v>2960.549862354846</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>381.4468456473314</v>
+        <v>231.1904709451288</v>
       </c>
       <c r="K33" t="n">
-        <v>381.4468456473314</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L33" t="n">
-        <v>381.4468456473314</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M33" t="n">
-        <v>381.4468456473314</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>381.4468456473314</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1270.928123658803</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2065.542080025265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2065.542080025265</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
@@ -6937,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677404</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>109.7493563677404</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2065.542080025265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2065.542080025265</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7192,19 +7192,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7262,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7362,22 +7362,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.151869599499</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1483.587973045304</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,13 +7399,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7429,19 +7429,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7496,19 +7496,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O42" t="n">
-        <v>1194.79262694784</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1085.715267670341</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C43" t="n">
-        <v>913.7427045492574</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D43" t="n">
-        <v>750.4259316760281</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E43" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1822.202732251165</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V43" t="n">
-        <v>1777.076408520152</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W43" t="n">
-        <v>1502.224004692665</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X43" t="n">
-        <v>1502.224004692665</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.881236382407</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L44" t="n">
-        <v>2110.0395278175</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M44" t="n">
-        <v>2129.375202991802</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478503</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629315</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M45" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N45" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>110.4928214404734</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258253</v>
@@ -8002,7 +8002,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>379.611113881151</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298235</v>
+        <v>542.4468912513908</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L5" t="n">
-        <v>301.3352940721923</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>181.7107419310186</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>549.8528999481832</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>372.2051051843586</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>182.5915214642096</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8540,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721218</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,13 +8692,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M11" t="n">
-        <v>181.7107419310186</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
@@ -8707,7 +8707,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8771,10 +8771,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>542.4468912513905</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8786,7 +8786,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>541.7026457419898</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716181</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P14" t="n">
-        <v>110.6369203512729</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L15" t="n">
-        <v>379.7269667620472</v>
+        <v>372.2051051843582</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9166,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>480.8452212937373</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>392.4461590409599</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>1121.661155963915</v>
@@ -9266,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>143.6953511146599</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335786</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,19 +9728,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>675.3923850715689</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>424.3574658298753</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10199,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>150.8007684134346</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,19 +10439,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>116.6167335079122</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10597,13 +10597,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>406.5994887481519</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10910,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11077,10 +11077,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0680802286663</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11144,22 +11144,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,7 +11305,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>56.96224792397994</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11314,7 +11314,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M45" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>257.4899673855207</v>
+        <v>228.83215794753</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22606,13 +22606,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,22 +22755,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>86.02262841516162</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.64613243500634</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>344.2759167079425</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22849,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,19 +22947,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>114.6701458615098</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>18.44967133088761</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23023,25 +23023,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>23.48989581857813</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>138.544406842946</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23184,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23193,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>18.44967133088761</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>4.209490149514778</v>
       </c>
     </row>
     <row r="11">
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>312.2232758890023</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23311,22 +23311,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>83.27454272872313</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>119.1959337771387</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>111.8798965279657</v>
+        <v>140.3031895372851</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>123.9812421822038</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F25" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.31806783256491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>167.4048439973641</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>234.2192922243486</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>466339.6876300524</v>
+        <v>466339.6876300526</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>466339.6876300524</v>
+        <v>466339.6876300526</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773587.8642726338</v>
+        <v>773587.8642726337</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773587.8642726338</v>
+        <v>773587.8642726337</v>
       </c>
     </row>
     <row r="10">
@@ -26316,10 +26316,10 @@
         <v>152470.9723568845</v>
       </c>
       <c r="C2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568844</v>
       </c>
       <c r="D2" t="n">
-        <v>152470.9723568844</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="E2" t="n">
         <v>152470.9723568845</v>
@@ -26346,13 +26346,13 @@
         <v>252913.6814118513</v>
       </c>
       <c r="M2" t="n">
-        <v>252913.6814118513</v>
+        <v>252913.6814118514</v>
       </c>
       <c r="N2" t="n">
         <v>252913.6814118513</v>
       </c>
       <c r="O2" t="n">
-        <v>252913.6814118514</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="P2" t="n">
         <v>252913.6814118513</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>26326.44296043127</v>
+      </c>
+      <c r="C4" t="n">
         <v>26326.44296043126</v>
-      </c>
-      <c r="C4" t="n">
-        <v>26326.44296043127</v>
       </c>
       <c r="D4" t="n">
         <v>26326.44296043127</v>
       </c>
       <c r="E4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="F4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043128</v>
       </c>
       <c r="G4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
@@ -26475,43 +26475,43 @@
         <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127706.455055712</v>
+        <v>-128315.5007682017</v>
       </c>
       <c r="C6" t="n">
-        <v>58698.27835902516</v>
+        <v>58089.23264653543</v>
       </c>
       <c r="D6" t="n">
-        <v>58698.27835902508</v>
+        <v>58089.2326465355</v>
       </c>
       <c r="E6" t="n">
-        <v>92325.87835902514</v>
+        <v>91716.83264653545</v>
       </c>
       <c r="F6" t="n">
-        <v>92325.87835902514</v>
+        <v>91716.83264653548</v>
       </c>
       <c r="G6" t="n">
-        <v>-66626.57112064279</v>
+        <v>-66677.6017828271</v>
       </c>
       <c r="H6" t="n">
-        <v>131415.2187695261</v>
+        <v>131364.1881073418</v>
       </c>
       <c r="I6" t="n">
-        <v>131415.2187695261</v>
+        <v>131364.1881073418</v>
       </c>
       <c r="J6" t="n">
-        <v>-14118.45116529037</v>
+        <v>-14169.48182747472</v>
       </c>
       <c r="K6" t="n">
-        <v>131415.2187695261</v>
+        <v>131364.1881073418</v>
       </c>
       <c r="L6" t="n">
-        <v>131415.2187695261</v>
+        <v>131364.1881073418</v>
       </c>
       <c r="M6" t="n">
-        <v>131415.2187695261</v>
+        <v>131364.1881073418</v>
       </c>
       <c r="N6" t="n">
-        <v>131415.2187695261</v>
+        <v>131364.1881073418</v>
       </c>
       <c r="O6" t="n">
-        <v>-42468.63032421857</v>
+        <v>-42519.66098640302</v>
       </c>
       <c r="P6" t="n">
-        <v>131415.2187695261</v>
+        <v>131364.1881073418</v>
       </c>
     </row>
   </sheetData>
@@ -26795,13 +26795,13 @@
         <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>73.06155854104156</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155939</v>
@@ -34722,7 +34722,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>357.2118800478177</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>519.9318045371612</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="M3" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L5" t="n">
-        <v>263.0232516395694</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>527.4536661148499</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>349.6900184701291</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>158.2737632597938</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M11" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35491,10 +35491,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>519.9318045371612</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P14" t="n">
-        <v>73.06155854104156</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L15" t="n">
-        <v>357.2118800478177</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>443.269859483506</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>369.3493785286319</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1100.318127750374</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>106.3043917586358</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212506</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>654.0493568580273</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>403.0144376163336</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>94.84589230308353</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37317,13 +37317,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37797,10 +37797,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>547.4927184184349</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,7 +38025,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>19.53098502454813</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38034,7 +38034,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M45" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
